--- a/election_votar_data/LOHAGARA/ADHUNAGAR/152551/152551_com_1397_male_without_photo_79_2025-11-24.pdf.xlsx
+++ b/election_votar_data/LOHAGARA/ADHUNAGAR/152551/152551_com_1397_male_without_photo_79_2025-11-24.pdf.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="44" customWidth="1" min="4" max="4"/>
     <col width="45.5" customWidth="1" min="5" max="5"/>
-    <col width="41.5" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="F195" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেকার/জন্ম তারিখ: ০৫/০১/২০০৩</t>
         </is>
       </c>
       <c r="G195" s="3" t="inlineStr">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="F238" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেকার/জন্ম তারিখ: ১৫/০১/১৯৯৭</t>
         </is>
       </c>
       <c r="G238" s="3" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="F246" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ০৬/০৩/২০০০</t>
         </is>
       </c>
       <c r="G246" s="3" t="inlineStr">
@@ -11193,7 +11193,7 @@
       </c>
       <c r="F256" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ২৩/০৮/২০০০</t>
         </is>
       </c>
       <c r="G256" s="3" t="inlineStr">
@@ -13881,7 +13881,7 @@
       </c>
       <c r="F320" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ০২/০৩/১৯৭২</t>
         </is>
       </c>
       <c r="G320" s="3" t="inlineStr">
@@ -23667,7 +23667,7 @@
       </c>
       <c r="F553" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ০৫/০৮/১৯৯৭</t>
         </is>
       </c>
       <c r="G553" s="3" t="inlineStr">
@@ -31143,7 +31143,7 @@
       </c>
       <c r="F731" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ১৩/১২/২০০২</t>
         </is>
       </c>
       <c r="G731" s="3" t="inlineStr">
@@ -33999,7 +33999,7 @@
       </c>
       <c r="F799" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ০১/১১/২০০২</t>
         </is>
       </c>
       <c r="G799" s="3" t="inlineStr">
@@ -45171,7 +45171,7 @@
       </c>
       <c r="F1065" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ১৫/০১/২০০১</t>
         </is>
       </c>
       <c r="G1065" s="3" t="inlineStr">
@@ -45675,7 +45675,7 @@
       </c>
       <c r="F1077" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ১০/০১/১৯৯০</t>
         </is>
       </c>
       <c r="G1077" s="3" t="inlineStr">
@@ -46683,7 +46683,7 @@
       </c>
       <c r="F1101" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ১৪/১২/১৯৯৯</t>
         </is>
       </c>
       <c r="G1101" s="3" t="inlineStr">
@@ -47019,7 +47019,7 @@
       </c>
       <c r="F1109" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ০৯/০৭/২০০০</t>
         </is>
       </c>
       <c r="G1109" s="3" t="inlineStr">
@@ -48573,7 +48573,7 @@
       </c>
       <c r="F1146" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ১৫/০৯/২০০০</t>
         </is>
       </c>
       <c r="G1146" s="3" t="inlineStr">
@@ -49287,7 +49287,7 @@
       </c>
       <c r="F1163" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেকার/জন্ম তারিখ: ২০/০৩/২০০২</t>
         </is>
       </c>
       <c r="G1163" s="3" t="inlineStr">
@@ -50505,7 +50505,7 @@
       </c>
       <c r="F1192" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী</t>
+          <t>মিস্ত্রী/জন্ম তারিখ: ১১/১০/১৯৯৯</t>
         </is>
       </c>
       <c r="G1192" s="3" t="inlineStr">
@@ -50589,7 +50589,7 @@
       </c>
       <c r="F1194" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ০২/০১/১৯৯৮</t>
         </is>
       </c>
       <c r="G1194" s="3" t="inlineStr">
@@ -54201,7 +54201,7 @@
       </c>
       <c r="F1280" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ০১/০৮/১৯৯৬</t>
         </is>
       </c>
       <c r="G1280" s="3" t="inlineStr">
@@ -56973,7 +56973,7 @@
       </c>
       <c r="F1346" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ২০/১১/২০০০</t>
         </is>
       </c>
       <c r="G1346" s="3" t="inlineStr">
